--- a/biology/Médecine/Intoxication_au_tétrachlorure_de_carbone/Intoxication_au_tétrachlorure_de_carbone.xlsx
+++ b/biology/Médecine/Intoxication_au_tétrachlorure_de_carbone/Intoxication_au_tétrachlorure_de_carbone.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Intoxication_au_t%C3%A9trachlorure_de_carbone</t>
+          <t>Intoxication_au_tétrachlorure_de_carbone</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article décrit les critères administratifs pour qu'une intoxication au tétrachlorure de carbone soit reconnue comme maladie professionnelle en France.
 Ce sujet relève du domaine de la législation sur la protection sociale et a un caractère davantage juridique que médical. 
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Intoxication_au_t%C3%A9trachlorure_de_carbone</t>
+          <t>Intoxication_au_tétrachlorure_de_carbone</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Régime général
-Régime agricole
-Données professionnelles
-Données médicales</t>
+          <t>Régime général</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Intoxication_au_tétrachlorure_de_carbone</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Intoxication_au_t%C3%A9trachlorure_de_carbone</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Législation en France</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Régime agricole</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+</t>
         </is>
       </c>
     </row>
